--- a/S2022_Tests/ASS_00_Dim_Testing/StudentFolder/Ex.4/ExcelExtract.xlsx
+++ b/S2022_Tests/ASS_00_Dim_Testing/StudentFolder/Ex.4/ExcelExtract.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\OneDrive\Desktop\Ualberta Summer 2022 Co-op\SolidWorks\AutoMARK\AutoMARK_V6\S2022_Tests\ASS_00_Dim_Testing\StudentFolder\Ex.4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3566E74B-5FB5-4394-A80E-ACD1D85EE12E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2137826A-94C7-4956-A680-86553063F5A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="953" yWindow="2847" windowWidth="13120" windowHeight="7660" xr2:uid="{F5535E70-BAA3-451C-BB74-0531A4D7DB08}"/>
+    <workbookView xWindow="953" yWindow="2847" windowWidth="13120" windowHeight="7660" xr2:uid="{A75EA307-5B58-45C7-BCE8-71028C67223B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1406,7 +1406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A10C14FF-3C05-4561-AFD0-540B85472FE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B86A4F3-A00C-4F35-8552-33A9660145E8}">
   <dimension ref="A1:AS125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/S2022_Tests/ASS_00_Dim_Testing/StudentFolder/Ex.4/ExcelExtract.xlsx
+++ b/S2022_Tests/ASS_00_Dim_Testing/StudentFolder/Ex.4/ExcelExtract.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\OneDrive\Desktop\Ualberta Summer 2022 Co-op\SolidWorks\AutoMARK\AutoMARK_V6\S2022_Tests\ASS_00_Dim_Testing\StudentFolder\Ex.4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2137826A-94C7-4956-A680-86553063F5A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{101B9379-C0A5-46B9-B705-EFC5554BA37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="953" yWindow="2847" windowWidth="13120" windowHeight="7660" xr2:uid="{A75EA307-5B58-45C7-BCE8-71028C67223B}"/>
+    <workbookView xWindow="953" yWindow="2847" windowWidth="13120" windowHeight="7660" xr2:uid="{1ED492C4-4362-40BD-A9B2-8D44412D363A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1406,7 +1406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B86A4F3-A00C-4F35-8552-33A9660145E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ADF5CC6-9AFE-4741-BA10-90396EC33434}">
   <dimension ref="A1:AS125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/S2022_Tests/ASS_00_Dim_Testing/StudentFolder/Ex.4/ExcelExtract.xlsx
+++ b/S2022_Tests/ASS_00_Dim_Testing/StudentFolder/Ex.4/ExcelExtract.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\OneDrive\Desktop\Ualberta Summer 2022 Co-op\SolidWorks\AutoMARK\AutoMARK_V6\S2022_Tests\ASS_00_Dim_Testing\StudentFolder\Ex.4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{101B9379-C0A5-46B9-B705-EFC5554BA37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2129EEE-6A80-4AB0-A81A-EB051372F60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="953" yWindow="2847" windowWidth="13120" windowHeight="7660" xr2:uid="{1ED492C4-4362-40BD-A9B2-8D44412D363A}"/>
+    <workbookView xWindow="3247" yWindow="327" windowWidth="7513" windowHeight="7800" xr2:uid="{3713C69A-8F1D-48C9-B6A0-76B2D2B5BB8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1406,7 +1406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ADF5CC6-9AFE-4741-BA10-90396EC33434}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E7E60A9-45CB-422D-9E5F-F93992D26FCC}">
   <dimension ref="A1:AS125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/S2022_Tests/ASS_00_Dim_Testing/StudentFolder/Ex.4/ExcelExtract.xlsx
+++ b/S2022_Tests/ASS_00_Dim_Testing/StudentFolder/Ex.4/ExcelExtract.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\OneDrive\Desktop\Ualberta Summer 2022 Co-op\SolidWorks\AutoMARK\AutoMARK_V6\S2022_Tests\ASS_00_Dim_Testing\StudentFolder\Ex.4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2129EEE-6A80-4AB0-A81A-EB051372F60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B65CC518-DFDA-44BD-8E02-B5D0BDD2B0E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3247" yWindow="327" windowWidth="7513" windowHeight="7800" xr2:uid="{3713C69A-8F1D-48C9-B6A0-76B2D2B5BB8D}"/>
+    <workbookView xWindow="3587" yWindow="667" windowWidth="7513" windowHeight="7800" xr2:uid="{A0E70ABB-64E0-425C-9666-09C3BB1766BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1406,7 +1406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E7E60A9-45CB-422D-9E5F-F93992D26FCC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58307878-795A-4DE3-819C-853E6B6A6B72}">
   <dimension ref="A1:AS125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/S2022_Tests/ASS_00_Dim_Testing/StudentFolder/Ex.4/ExcelExtract.xlsx
+++ b/S2022_Tests/ASS_00_Dim_Testing/StudentFolder/Ex.4/ExcelExtract.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\OneDrive\Desktop\Ualberta Summer 2022 Co-op\SolidWorks\AutoMARK\AutoMARK_V6\S2022_Tests\ASS_00_Dim_Testing\StudentFolder\Ex.4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B65CC518-DFDA-44BD-8E02-B5D0BDD2B0E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{49E78489-6AFC-455C-9515-CC075F56AAAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3587" yWindow="667" windowWidth="7513" windowHeight="7800" xr2:uid="{A0E70ABB-64E0-425C-9666-09C3BB1766BC}"/>
+    <workbookView xWindow="13" yWindow="4847" windowWidth="24860" windowHeight="7800" xr2:uid="{A0F56BC7-92F9-482A-943B-8592951953AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1406,7 +1406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58307878-795A-4DE3-819C-853E6B6A6B72}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E9B51A-5120-4659-9020-92D47EE3C2F9}">
   <dimension ref="A1:AS125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -6535,7 +6535,7 @@
         <v>2</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -6648,7 +6648,7 @@
         <v>2</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -8556,7 +8556,7 @@
         <v>2</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G96">
         <v>1</v>

--- a/S2022_Tests/ASS_00_Dim_Testing/StudentFolder/Ex.4/ExcelExtract.xlsx
+++ b/S2022_Tests/ASS_00_Dim_Testing/StudentFolder/Ex.4/ExcelExtract.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\OneDrive\Desktop\Ualberta Summer 2022 Co-op\SolidWorks\AutoMARK\AutoMARK_V6\S2022_Tests\ASS_00_Dim_Testing\StudentFolder\Ex.4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49E78489-6AFC-455C-9515-CC075F56AAAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{32730D63-F73E-4140-B832-3640B9C52FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13" yWindow="4847" windowWidth="24860" windowHeight="7800" xr2:uid="{A0F56BC7-92F9-482A-943B-8592951953AB}"/>
+    <workbookView xWindow="13" yWindow="4847" windowWidth="24860" windowHeight="7800" xr2:uid="{AD48BB33-8D59-4425-815A-6BC309CD9F72}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1406,7 +1406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E9B51A-5120-4659-9020-92D47EE3C2F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3B81A69-DAC3-413E-B1B7-4B14DF0AD3FF}">
   <dimension ref="A1:AS125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
